--- a/연보/사업자번호리스트.xlsx
+++ b/연보/사업자번호리스트.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Project\macro\rm\연보\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A899AC99-A530-4B45-B7E6-A69412ED2F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C0D04B-6F96-4D4C-AD36-34104A183F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{13F172C4-3909-4061-9309-C7598748F23E}"/>
+    <workbookView xWindow="4110" yWindow="210" windowWidth="7500" windowHeight="12570" xr2:uid="{13F172C4-3909-4061-9309-C7598748F23E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
